--- a/src/main/resources/trail.xlsx
+++ b/src/main/resources/trail.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Payments\SpringBatchProcessing\Excel_API_Subscription\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C936DB53-7098-47B0-B9D5-D3706ACADCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{452FE82A-B051-4433-9844-5FFC5F0CDA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="20790" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>prathik@zee.com</t>
   </si>
@@ -37,6 +33,9 @@
   </si>
   <si>
     <t>Emp002</t>
+  </si>
+  <si>
+    <t>q845984312</t>
   </si>
 </sst>
 </file>
@@ -365,15 +364,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -383,8 +385,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1">
+        <v>9148489627</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -393,6 +398,9 @@
       </c>
       <c r="C2" t="s">
         <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
